--- a/doc/04_外部設計書_F4_実績メニュー設定.xlsx
+++ b/doc/04_外部設計書_F4_実績メニュー設定.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804CB577-4346-4B09-87BE-15F50E1E8B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82C3C45-7AC5-4F3A-9258-832670592095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,10 +539,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>humberger</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -731,14 +727,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Hum</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>hum</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>soundswitch</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -805,6 +793,18 @@
   </si>
   <si>
     <t>BGIUPLOAD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hamburger</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ham</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ham</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1257,6 +1257,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,6 +1313,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,13 +1338,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="AB306" sqref="AB306"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1845,154 +1845,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="50" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="43"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="46"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="44" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="46">
+      <c r="X2" s="48"/>
+      <c r="Y2" s="49">
         <v>44718</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="47" t="s">
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5148,23 +5148,23 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="51">
+      <c r="C79" s="25">
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="52" t="s">
-        <v>53</v>
+      <c r="H79" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -5198,23 +5198,23 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="51">
+      <c r="C80" s="25">
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -5248,23 +5248,23 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="51">
+      <c r="C81" s="25">
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -5298,23 +5298,23 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="51">
+      <c r="C82" s="25">
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
@@ -6481,154 +6481,154 @@
     </row>
     <row r="110" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="111" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="34" t="s">
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L111" s="34"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="35" t="s">
+      <c r="L111" s="36"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O111" s="35"/>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="35"/>
-      <c r="R111" s="35"/>
-      <c r="S111" s="35"/>
-      <c r="T111" s="35"/>
-      <c r="U111" s="35"/>
-      <c r="V111" s="35"/>
-      <c r="W111" s="35" t="s">
+      <c r="O111" s="37"/>
+      <c r="P111" s="37"/>
+      <c r="Q111" s="37"/>
+      <c r="R111" s="37"/>
+      <c r="S111" s="37"/>
+      <c r="T111" s="37"/>
+      <c r="U111" s="37"/>
+      <c r="V111" s="37"/>
+      <c r="W111" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X111" s="35"/>
-      <c r="Y111" s="35" t="s">
+      <c r="X111" s="37"/>
+      <c r="Y111" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Z111" s="35"/>
-      <c r="AA111" s="35"/>
-      <c r="AB111" s="35"/>
-      <c r="AC111" s="35"/>
-      <c r="AD111" s="35"/>
-      <c r="AE111" s="35"/>
-      <c r="AF111" s="50" t="s">
+      <c r="Z111" s="37"/>
+      <c r="AA111" s="37"/>
+      <c r="AB111" s="37"/>
+      <c r="AC111" s="37"/>
+      <c r="AD111" s="37"/>
+      <c r="AE111" s="37"/>
+      <c r="AF111" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG111" s="50"/>
-      <c r="AH111" s="42"/>
-      <c r="AI111" s="42"/>
-      <c r="AJ111" s="42"/>
-      <c r="AK111" s="42"/>
-      <c r="AL111" s="42"/>
-      <c r="AM111" s="42"/>
-      <c r="AN111" s="43"/>
+      <c r="AG111" s="44"/>
+      <c r="AH111" s="45"/>
+      <c r="AI111" s="45"/>
+      <c r="AJ111" s="45"/>
+      <c r="AK111" s="45"/>
+      <c r="AL111" s="45"/>
+      <c r="AM111" s="45"/>
+      <c r="AN111" s="46"/>
     </row>
     <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="28"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="30"/>
-      <c r="K112" s="44" t="s">
+      <c r="A112" s="30"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="L112" s="44"/>
-      <c r="M112" s="44"/>
-      <c r="N112" s="45" t="s">
+      <c r="L112" s="47"/>
+      <c r="M112" s="47"/>
+      <c r="N112" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="O112" s="45"/>
-      <c r="P112" s="45"/>
-      <c r="Q112" s="45"/>
-      <c r="R112" s="45"/>
-      <c r="S112" s="45"/>
-      <c r="T112" s="45"/>
-      <c r="U112" s="45"/>
-      <c r="V112" s="45"/>
-      <c r="W112" s="45" t="s">
+      <c r="O112" s="48"/>
+      <c r="P112" s="48"/>
+      <c r="Q112" s="48"/>
+      <c r="R112" s="48"/>
+      <c r="S112" s="48"/>
+      <c r="T112" s="48"/>
+      <c r="U112" s="48"/>
+      <c r="V112" s="48"/>
+      <c r="W112" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="X112" s="45"/>
-      <c r="Y112" s="46">
+      <c r="X112" s="48"/>
+      <c r="Y112" s="49">
         <v>44718</v>
       </c>
-      <c r="Z112" s="45"/>
-      <c r="AA112" s="45"/>
-      <c r="AB112" s="45"/>
-      <c r="AC112" s="45"/>
-      <c r="AD112" s="45"/>
-      <c r="AE112" s="45"/>
-      <c r="AF112" s="47" t="s">
+      <c r="Z112" s="48"/>
+      <c r="AA112" s="48"/>
+      <c r="AB112" s="48"/>
+      <c r="AC112" s="48"/>
+      <c r="AD112" s="48"/>
+      <c r="AE112" s="48"/>
+      <c r="AF112" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG112" s="47"/>
-      <c r="AH112" s="48"/>
-      <c r="AI112" s="48"/>
-      <c r="AJ112" s="48"/>
-      <c r="AK112" s="48"/>
-      <c r="AL112" s="48"/>
-      <c r="AM112" s="48"/>
-      <c r="AN112" s="49"/>
+      <c r="AG112" s="50"/>
+      <c r="AH112" s="51"/>
+      <c r="AI112" s="51"/>
+      <c r="AJ112" s="51"/>
+      <c r="AK112" s="51"/>
+      <c r="AL112" s="51"/>
+      <c r="AM112" s="51"/>
+      <c r="AN112" s="52"/>
     </row>
     <row r="113" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="31"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="33"/>
-      <c r="K113" s="36" t="s">
+      <c r="A113" s="33"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L113" s="37"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="39"/>
-      <c r="O113" s="40"/>
-      <c r="P113" s="40"/>
-      <c r="Q113" s="40"/>
-      <c r="R113" s="40"/>
-      <c r="S113" s="40"/>
-      <c r="T113" s="40"/>
-      <c r="U113" s="40"/>
-      <c r="V113" s="40"/>
-      <c r="W113" s="40"/>
-      <c r="X113" s="40"/>
-      <c r="Y113" s="40"/>
-      <c r="Z113" s="40"/>
-      <c r="AA113" s="40"/>
-      <c r="AB113" s="40"/>
-      <c r="AC113" s="40"/>
-      <c r="AD113" s="40"/>
-      <c r="AE113" s="40"/>
-      <c r="AF113" s="40"/>
-      <c r="AG113" s="40"/>
-      <c r="AH113" s="40"/>
-      <c r="AI113" s="40"/>
-      <c r="AJ113" s="40"/>
-      <c r="AK113" s="40"/>
-      <c r="AL113" s="40"/>
-      <c r="AM113" s="40"/>
-      <c r="AN113" s="41"/>
+      <c r="L113" s="39"/>
+      <c r="M113" s="40"/>
+      <c r="N113" s="41"/>
+      <c r="O113" s="42"/>
+      <c r="P113" s="42"/>
+      <c r="Q113" s="42"/>
+      <c r="R113" s="42"/>
+      <c r="S113" s="42"/>
+      <c r="T113" s="42"/>
+      <c r="U113" s="42"/>
+      <c r="V113" s="42"/>
+      <c r="W113" s="42"/>
+      <c r="X113" s="42"/>
+      <c r="Y113" s="42"/>
+      <c r="Z113" s="42"/>
+      <c r="AA113" s="42"/>
+      <c r="AB113" s="42"/>
+      <c r="AC113" s="42"/>
+      <c r="AD113" s="42"/>
+      <c r="AE113" s="42"/>
+      <c r="AF113" s="42"/>
+      <c r="AG113" s="42"/>
+      <c r="AH113" s="42"/>
+      <c r="AI113" s="42"/>
+      <c r="AJ113" s="42"/>
+      <c r="AK113" s="42"/>
+      <c r="AL113" s="42"/>
+      <c r="AM113" s="42"/>
+      <c r="AN113" s="43"/>
     </row>
     <row r="114" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B114" s="2"/>
@@ -9792,24 +9792,24 @@
         <v>1</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E189" s="17"/>
       <c r="F189" s="17"/>
       <c r="G189" s="15"/>
       <c r="H189" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I189" s="18"/>
       <c r="J189" s="17"/>
       <c r="K189" s="19"/>
       <c r="L189" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M189" s="17"/>
       <c r="N189" s="19"/>
       <c r="O189" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P189" s="17"/>
       <c r="Q189" s="17"/>
@@ -9819,13 +9819,13 @@
       <c r="U189" s="16"/>
       <c r="V189" s="19"/>
       <c r="W189" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X189" s="17"/>
       <c r="Y189" s="17"/>
       <c r="Z189" s="19"/>
       <c r="AA189" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB189" s="17"/>
       <c r="AC189" s="19"/>
@@ -9848,19 +9848,19 @@
         <v>2</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="17"/>
       <c r="G190" s="15"/>
       <c r="H190" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I190" s="18"/>
       <c r="J190" s="17"/>
       <c r="K190" s="19"/>
       <c r="L190" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M190" s="17"/>
       <c r="N190" s="19"/>
@@ -9898,19 +9898,19 @@
         <v>3</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E191" s="17"/>
       <c r="F191" s="17"/>
       <c r="G191" s="15"/>
       <c r="H191" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I191" s="18"/>
       <c r="J191" s="17"/>
       <c r="K191" s="19"/>
       <c r="L191" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M191" s="17"/>
       <c r="N191" s="19"/>
@@ -9948,19 +9948,19 @@
         <v>4</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E192" s="17"/>
       <c r="F192" s="17"/>
       <c r="G192" s="15"/>
       <c r="H192" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I192" s="18"/>
       <c r="J192" s="17"/>
       <c r="K192" s="19"/>
       <c r="L192" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M192" s="17"/>
       <c r="N192" s="19"/>
@@ -9998,19 +9998,19 @@
         <v>5</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E193" s="17"/>
       <c r="F193" s="17"/>
       <c r="G193" s="15"/>
       <c r="H193" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I193" s="18"/>
       <c r="J193" s="17"/>
       <c r="K193" s="19"/>
       <c r="L193" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M193" s="17"/>
       <c r="N193" s="19"/>
@@ -10048,19 +10048,19 @@
         <v>6</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E194" s="17"/>
       <c r="F194" s="17"/>
       <c r="G194" s="15"/>
       <c r="H194" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I194" s="18"/>
       <c r="J194" s="17"/>
       <c r="K194" s="19"/>
       <c r="L194" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M194" s="17"/>
       <c r="N194" s="19"/>
@@ -10098,19 +10098,19 @@
         <v>7</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E195" s="17"/>
       <c r="F195" s="17"/>
       <c r="G195" s="15"/>
       <c r="H195" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I195" s="18"/>
       <c r="J195" s="17"/>
       <c r="K195" s="19"/>
       <c r="L195" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M195" s="17"/>
       <c r="N195" s="19"/>
@@ -10148,19 +10148,19 @@
         <v>8</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E196" s="17"/>
       <c r="F196" s="17"/>
       <c r="G196" s="15"/>
       <c r="H196" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I196" s="18"/>
       <c r="J196" s="17"/>
       <c r="K196" s="19"/>
       <c r="L196" s="16" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M196" s="17"/>
       <c r="N196" s="19"/>
@@ -10198,19 +10198,19 @@
         <v>9</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E197" s="17"/>
       <c r="F197" s="17"/>
       <c r="G197" s="15"/>
       <c r="H197" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I197" s="18"/>
       <c r="J197" s="17"/>
       <c r="K197" s="19"/>
       <c r="L197" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M197" s="17"/>
       <c r="N197" s="19"/>
@@ -11167,154 +11167,154 @@
     </row>
     <row r="220" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="221" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
-      <c r="F221" s="26"/>
-      <c r="G221" s="26"/>
-      <c r="H221" s="26"/>
-      <c r="I221" s="26"/>
-      <c r="J221" s="27"/>
-      <c r="K221" s="34" t="s">
+      <c r="B221" s="28"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
+      <c r="H221" s="28"/>
+      <c r="I221" s="28"/>
+      <c r="J221" s="29"/>
+      <c r="K221" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L221" s="34"/>
-      <c r="M221" s="34"/>
-      <c r="N221" s="35" t="s">
+      <c r="L221" s="36"/>
+      <c r="M221" s="36"/>
+      <c r="N221" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O221" s="35"/>
-      <c r="P221" s="35"/>
-      <c r="Q221" s="35"/>
-      <c r="R221" s="35"/>
-      <c r="S221" s="35"/>
-      <c r="T221" s="35"/>
-      <c r="U221" s="35"/>
-      <c r="V221" s="35"/>
-      <c r="W221" s="35" t="s">
+      <c r="O221" s="37"/>
+      <c r="P221" s="37"/>
+      <c r="Q221" s="37"/>
+      <c r="R221" s="37"/>
+      <c r="S221" s="37"/>
+      <c r="T221" s="37"/>
+      <c r="U221" s="37"/>
+      <c r="V221" s="37"/>
+      <c r="W221" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X221" s="35"/>
-      <c r="Y221" s="35" t="s">
+      <c r="X221" s="37"/>
+      <c r="Y221" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Z221" s="35"/>
-      <c r="AA221" s="35"/>
-      <c r="AB221" s="35"/>
-      <c r="AC221" s="35"/>
-      <c r="AD221" s="35"/>
-      <c r="AE221" s="35"/>
-      <c r="AF221" s="50" t="s">
+      <c r="Z221" s="37"/>
+      <c r="AA221" s="37"/>
+      <c r="AB221" s="37"/>
+      <c r="AC221" s="37"/>
+      <c r="AD221" s="37"/>
+      <c r="AE221" s="37"/>
+      <c r="AF221" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG221" s="50"/>
-      <c r="AH221" s="42"/>
-      <c r="AI221" s="42"/>
-      <c r="AJ221" s="42"/>
-      <c r="AK221" s="42"/>
-      <c r="AL221" s="42"/>
-      <c r="AM221" s="42"/>
-      <c r="AN221" s="43"/>
+      <c r="AG221" s="44"/>
+      <c r="AH221" s="45"/>
+      <c r="AI221" s="45"/>
+      <c r="AJ221" s="45"/>
+      <c r="AK221" s="45"/>
+      <c r="AL221" s="45"/>
+      <c r="AM221" s="45"/>
+      <c r="AN221" s="46"/>
     </row>
     <row r="222" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="28"/>
-      <c r="B222" s="29"/>
-      <c r="C222" s="29"/>
-      <c r="D222" s="29"/>
-      <c r="E222" s="29"/>
-      <c r="F222" s="29"/>
-      <c r="G222" s="29"/>
-      <c r="H222" s="29"/>
-      <c r="I222" s="29"/>
-      <c r="J222" s="30"/>
-      <c r="K222" s="44" t="s">
+      <c r="A222" s="30"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="31"/>
+      <c r="F222" s="31"/>
+      <c r="G222" s="31"/>
+      <c r="H222" s="31"/>
+      <c r="I222" s="31"/>
+      <c r="J222" s="32"/>
+      <c r="K222" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="L222" s="44"/>
-      <c r="M222" s="44"/>
-      <c r="N222" s="45" t="s">
+      <c r="L222" s="47"/>
+      <c r="M222" s="47"/>
+      <c r="N222" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="O222" s="45"/>
-      <c r="P222" s="45"/>
-      <c r="Q222" s="45"/>
-      <c r="R222" s="45"/>
-      <c r="S222" s="45"/>
-      <c r="T222" s="45"/>
-      <c r="U222" s="45"/>
-      <c r="V222" s="45"/>
-      <c r="W222" s="45" t="s">
+      <c r="O222" s="48"/>
+      <c r="P222" s="48"/>
+      <c r="Q222" s="48"/>
+      <c r="R222" s="48"/>
+      <c r="S222" s="48"/>
+      <c r="T222" s="48"/>
+      <c r="U222" s="48"/>
+      <c r="V222" s="48"/>
+      <c r="W222" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="X222" s="45"/>
-      <c r="Y222" s="46">
+      <c r="X222" s="48"/>
+      <c r="Y222" s="49">
         <v>44718</v>
       </c>
-      <c r="Z222" s="45"/>
-      <c r="AA222" s="45"/>
-      <c r="AB222" s="45"/>
-      <c r="AC222" s="45"/>
-      <c r="AD222" s="45"/>
-      <c r="AE222" s="45"/>
-      <c r="AF222" s="47" t="s">
+      <c r="Z222" s="48"/>
+      <c r="AA222" s="48"/>
+      <c r="AB222" s="48"/>
+      <c r="AC222" s="48"/>
+      <c r="AD222" s="48"/>
+      <c r="AE222" s="48"/>
+      <c r="AF222" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG222" s="47"/>
-      <c r="AH222" s="48"/>
-      <c r="AI222" s="48"/>
-      <c r="AJ222" s="48"/>
-      <c r="AK222" s="48"/>
-      <c r="AL222" s="48"/>
-      <c r="AM222" s="48"/>
-      <c r="AN222" s="49"/>
+      <c r="AG222" s="50"/>
+      <c r="AH222" s="51"/>
+      <c r="AI222" s="51"/>
+      <c r="AJ222" s="51"/>
+      <c r="AK222" s="51"/>
+      <c r="AL222" s="51"/>
+      <c r="AM222" s="51"/>
+      <c r="AN222" s="52"/>
     </row>
     <row r="223" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="31"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="32"/>
-      <c r="D223" s="32"/>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="32"/>
-      <c r="I223" s="32"/>
-      <c r="J223" s="33"/>
-      <c r="K223" s="36" t="s">
+      <c r="A223" s="33"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="34"/>
+      <c r="D223" s="34"/>
+      <c r="E223" s="34"/>
+      <c r="F223" s="34"/>
+      <c r="G223" s="34"/>
+      <c r="H223" s="34"/>
+      <c r="I223" s="34"/>
+      <c r="J223" s="35"/>
+      <c r="K223" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L223" s="37"/>
-      <c r="M223" s="38"/>
-      <c r="N223" s="39"/>
-      <c r="O223" s="40"/>
-      <c r="P223" s="40"/>
-      <c r="Q223" s="40"/>
-      <c r="R223" s="40"/>
-      <c r="S223" s="40"/>
-      <c r="T223" s="40"/>
-      <c r="U223" s="40"/>
-      <c r="V223" s="40"/>
-      <c r="W223" s="40"/>
-      <c r="X223" s="40"/>
-      <c r="Y223" s="40"/>
-      <c r="Z223" s="40"/>
-      <c r="AA223" s="40"/>
-      <c r="AB223" s="40"/>
-      <c r="AC223" s="40"/>
-      <c r="AD223" s="40"/>
-      <c r="AE223" s="40"/>
-      <c r="AF223" s="40"/>
-      <c r="AG223" s="40"/>
-      <c r="AH223" s="40"/>
-      <c r="AI223" s="40"/>
-      <c r="AJ223" s="40"/>
-      <c r="AK223" s="40"/>
-      <c r="AL223" s="40"/>
-      <c r="AM223" s="40"/>
-      <c r="AN223" s="41"/>
+      <c r="L223" s="39"/>
+      <c r="M223" s="40"/>
+      <c r="N223" s="41"/>
+      <c r="O223" s="42"/>
+      <c r="P223" s="42"/>
+      <c r="Q223" s="42"/>
+      <c r="R223" s="42"/>
+      <c r="S223" s="42"/>
+      <c r="T223" s="42"/>
+      <c r="U223" s="42"/>
+      <c r="V223" s="42"/>
+      <c r="W223" s="42"/>
+      <c r="X223" s="42"/>
+      <c r="Y223" s="42"/>
+      <c r="Z223" s="42"/>
+      <c r="AA223" s="42"/>
+      <c r="AB223" s="42"/>
+      <c r="AC223" s="42"/>
+      <c r="AD223" s="42"/>
+      <c r="AE223" s="42"/>
+      <c r="AF223" s="42"/>
+      <c r="AG223" s="42"/>
+      <c r="AH223" s="42"/>
+      <c r="AI223" s="42"/>
+      <c r="AJ223" s="42"/>
+      <c r="AK223" s="42"/>
+      <c r="AL223" s="42"/>
+      <c r="AM223" s="42"/>
+      <c r="AN223" s="43"/>
     </row>
     <row r="224" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B224" s="2"/>
@@ -14482,19 +14482,19 @@
         <v>1</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="E299" s="17"/>
       <c r="F299" s="17"/>
       <c r="G299" s="15"/>
-      <c r="H299" s="52" t="s">
-        <v>53</v>
+      <c r="H299" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="I299" s="18"/>
       <c r="J299" s="17"/>
       <c r="K299" s="19"/>
       <c r="L299" s="16" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="M299" s="17"/>
       <c r="N299" s="19"/>
@@ -14532,19 +14532,19 @@
         <v>2</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E300" s="17"/>
       <c r="F300" s="17"/>
       <c r="G300" s="15"/>
       <c r="H300" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I300" s="18"/>
       <c r="J300" s="17"/>
       <c r="K300" s="19"/>
       <c r="L300" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M300" s="17"/>
       <c r="N300" s="19"/>
@@ -14582,19 +14582,19 @@
         <v>3</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E301" s="17"/>
       <c r="F301" s="17"/>
       <c r="G301" s="15"/>
       <c r="H301" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I301" s="18"/>
       <c r="J301" s="17"/>
       <c r="K301" s="19"/>
       <c r="L301" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M301" s="17"/>
       <c r="N301" s="19"/>
@@ -14632,19 +14632,19 @@
         <v>4</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E302" s="17"/>
       <c r="F302" s="17"/>
       <c r="G302" s="15"/>
       <c r="H302" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I302" s="18"/>
       <c r="J302" s="17"/>
       <c r="K302" s="19"/>
       <c r="L302" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M302" s="17"/>
       <c r="N302" s="19"/>
@@ -14657,18 +14657,18 @@
       <c r="U302" s="16"/>
       <c r="V302" s="19"/>
       <c r="W302" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="X302" s="17"/>
       <c r="Y302" s="17"/>
       <c r="Z302" s="19"/>
       <c r="AA302" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AB302" s="17"/>
       <c r="AC302" s="19"/>
       <c r="AD302" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE302" s="17"/>
       <c r="AF302" s="17"/>
@@ -14688,19 +14688,19 @@
         <v>5</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E303" s="17"/>
       <c r="F303" s="17"/>
       <c r="G303" s="15"/>
       <c r="H303" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I303" s="18"/>
       <c r="J303" s="17"/>
       <c r="K303" s="19"/>
       <c r="L303" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M303" s="17"/>
       <c r="N303" s="19"/>
@@ -14713,18 +14713,18 @@
       <c r="U303" s="16"/>
       <c r="V303" s="19"/>
       <c r="W303" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="X303" s="17"/>
       <c r="Y303" s="17"/>
       <c r="Z303" s="19"/>
       <c r="AA303" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AB303" s="17"/>
       <c r="AC303" s="19"/>
       <c r="AD303" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE303" s="17"/>
       <c r="AF303" s="17"/>
@@ -14744,19 +14744,19 @@
         <v>6</v>
       </c>
       <c r="D304" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E304" s="17"/>
       <c r="F304" s="17"/>
       <c r="G304" s="15"/>
       <c r="H304" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I304" s="18"/>
       <c r="J304" s="17"/>
       <c r="K304" s="19"/>
       <c r="L304" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M304" s="17"/>
       <c r="N304" s="19"/>
@@ -14769,18 +14769,18 @@
       <c r="U304" s="16"/>
       <c r="V304" s="19"/>
       <c r="W304" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X304" s="17"/>
       <c r="Y304" s="17"/>
       <c r="Z304" s="19"/>
       <c r="AA304" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AB304" s="17"/>
       <c r="AC304" s="19"/>
       <c r="AD304" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE304" s="17"/>
       <c r="AF304" s="17"/>
@@ -14800,19 +14800,19 @@
         <v>7</v>
       </c>
       <c r="D305" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E305" s="17"/>
       <c r="F305" s="17"/>
       <c r="G305" s="15"/>
-      <c r="H305" s="52" t="s">
-        <v>85</v>
+      <c r="H305" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="I305" s="18"/>
       <c r="J305" s="17"/>
       <c r="K305" s="19"/>
       <c r="L305" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M305" s="17"/>
       <c r="N305" s="19"/>
@@ -14825,16 +14825,16 @@
       <c r="U305" s="16"/>
       <c r="V305" s="19"/>
       <c r="W305" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X305" s="17"/>
       <c r="Y305" s="17"/>
       <c r="Z305" s="19"/>
       <c r="AA305" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AB305" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AC305" s="19"/>
       <c r="AD305" s="16"/>
@@ -14856,19 +14856,19 @@
         <v>8</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E306" s="17"/>
       <c r="F306" s="17"/>
       <c r="G306" s="15"/>
       <c r="H306" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I306" s="18"/>
       <c r="J306" s="17"/>
       <c r="K306" s="19"/>
       <c r="L306" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M306" s="17"/>
       <c r="N306" s="19"/>
@@ -15867,6 +15867,36 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="A111:J113"/>
+    <mergeCell ref="K111:M111"/>
+    <mergeCell ref="N111:V111"/>
+    <mergeCell ref="W111:X111"/>
+    <mergeCell ref="Y111:AE111"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:AN113"/>
+    <mergeCell ref="AF111:AG111"/>
+    <mergeCell ref="AH111:AN111"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="N112:V112"/>
+    <mergeCell ref="W112:X112"/>
+    <mergeCell ref="Y112:AE112"/>
+    <mergeCell ref="AF112:AG112"/>
+    <mergeCell ref="AH112:AN112"/>
     <mergeCell ref="A221:J223"/>
     <mergeCell ref="K221:M221"/>
     <mergeCell ref="N221:V221"/>
@@ -15882,36 +15912,6 @@
     <mergeCell ref="Y222:AE222"/>
     <mergeCell ref="AF222:AG222"/>
     <mergeCell ref="AH222:AN222"/>
-    <mergeCell ref="A111:J113"/>
-    <mergeCell ref="K111:M111"/>
-    <mergeCell ref="N111:V111"/>
-    <mergeCell ref="W111:X111"/>
-    <mergeCell ref="Y111:AE111"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:AN113"/>
-    <mergeCell ref="AF111:AG111"/>
-    <mergeCell ref="AH111:AN111"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="N112:V112"/>
-    <mergeCell ref="W112:X112"/>
-    <mergeCell ref="Y112:AE112"/>
-    <mergeCell ref="AF112:AG112"/>
-    <mergeCell ref="AH112:AN112"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/04_外部設計書_F4_実績メニュー設定.xlsx
+++ b/doc/04_外部設計書_F4_実績メニュー設定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82C3C45-7AC5-4F3A-9258-832670592095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC625EA-9865-4C2E-B52C-3C86600CB190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,9 +1313,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1338,6 +1335,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1507,6 +1507,664 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78174693-E1F6-F949-1C5C-CBD7A734A2A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="2857501"/>
+          <a:ext cx="1676400" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>div class="achieveList"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE55EF5E-3F09-4D22-93A5-28AEA86CC7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029076" y="45577125"/>
+          <a:ext cx="1409700" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>input type="radio" class="voiceSwitch"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FE9D56-307B-46E1-98AF-149FA62D8D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="46243875"/>
+          <a:ext cx="1952625" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> name="voiceVariety"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>class="voiceSelect"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3315C2E-586B-4CD8-9B80-CDDCF4BA5D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="46672500"/>
+          <a:ext cx="1752600" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> name="bgiVariety"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>class="bgiSelect"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E919D68-F3D6-47C5-92E6-8D1A0ECC3B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="47101125"/>
+          <a:ext cx="1809750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>form name="bgiUpload"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>class="bgiSend"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E18372-C982-CEE9-FBBA-CF10CA7D690D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="47586900"/>
+          <a:ext cx="495300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E9C74C-64AB-47EC-9D39-CC8A1AF7BA1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="47405925"/>
+          <a:ext cx="1685925" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>input type="submit" value="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>id="bgiSubmit"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78491DDF-27A8-46F3-8388-3920247613D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809749" y="2524124"/>
+          <a:ext cx="2257425" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>div class="achieveAbove"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>（実績コンテンツ上）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692504F8-7EAE-4F99-B6D6-AD400752A077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752599" y="3219450"/>
+          <a:ext cx="2162175" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>div class="achieveBelow"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>（実績コンテンツ下）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1835,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="AL242" sqref="AL242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1886,17 +2544,17 @@
       <c r="AC1" s="37"/>
       <c r="AD1" s="37"/>
       <c r="AE1" s="37"/>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="46"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
@@ -1909,46 +2567,46 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="32"/>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="48">
         <v>44718</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -6522,17 +7180,17 @@
       <c r="AC111" s="37"/>
       <c r="AD111" s="37"/>
       <c r="AE111" s="37"/>
-      <c r="AF111" s="44" t="s">
+      <c r="AF111" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG111" s="44"/>
-      <c r="AH111" s="45"/>
-      <c r="AI111" s="45"/>
-      <c r="AJ111" s="45"/>
-      <c r="AK111" s="45"/>
-      <c r="AL111" s="45"/>
-      <c r="AM111" s="45"/>
-      <c r="AN111" s="46"/>
+      <c r="AG111" s="52"/>
+      <c r="AH111" s="44"/>
+      <c r="AI111" s="44"/>
+      <c r="AJ111" s="44"/>
+      <c r="AK111" s="44"/>
+      <c r="AL111" s="44"/>
+      <c r="AM111" s="44"/>
+      <c r="AN111" s="45"/>
     </row>
     <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="30"/>
@@ -6545,46 +7203,46 @@
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
       <c r="J112" s="32"/>
-      <c r="K112" s="47" t="s">
+      <c r="K112" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L112" s="47"/>
-      <c r="M112" s="47"/>
-      <c r="N112" s="48" t="s">
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="O112" s="48"/>
-      <c r="P112" s="48"/>
-      <c r="Q112" s="48"/>
-      <c r="R112" s="48"/>
-      <c r="S112" s="48"/>
-      <c r="T112" s="48"/>
-      <c r="U112" s="48"/>
-      <c r="V112" s="48"/>
-      <c r="W112" s="48" t="s">
+      <c r="O112" s="47"/>
+      <c r="P112" s="47"/>
+      <c r="Q112" s="47"/>
+      <c r="R112" s="47"/>
+      <c r="S112" s="47"/>
+      <c r="T112" s="47"/>
+      <c r="U112" s="47"/>
+      <c r="V112" s="47"/>
+      <c r="W112" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X112" s="48"/>
-      <c r="Y112" s="49">
+      <c r="X112" s="47"/>
+      <c r="Y112" s="48">
         <v>44718</v>
       </c>
-      <c r="Z112" s="48"/>
-      <c r="AA112" s="48"/>
-      <c r="AB112" s="48"/>
-      <c r="AC112" s="48"/>
-      <c r="AD112" s="48"/>
-      <c r="AE112" s="48"/>
-      <c r="AF112" s="50" t="s">
+      <c r="Z112" s="47"/>
+      <c r="AA112" s="47"/>
+      <c r="AB112" s="47"/>
+      <c r="AC112" s="47"/>
+      <c r="AD112" s="47"/>
+      <c r="AE112" s="47"/>
+      <c r="AF112" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AG112" s="50"/>
-      <c r="AH112" s="51"/>
-      <c r="AI112" s="51"/>
-      <c r="AJ112" s="51"/>
-      <c r="AK112" s="51"/>
-      <c r="AL112" s="51"/>
-      <c r="AM112" s="51"/>
-      <c r="AN112" s="52"/>
+      <c r="AG112" s="49"/>
+      <c r="AH112" s="50"/>
+      <c r="AI112" s="50"/>
+      <c r="AJ112" s="50"/>
+      <c r="AK112" s="50"/>
+      <c r="AL112" s="50"/>
+      <c r="AM112" s="50"/>
+      <c r="AN112" s="51"/>
     </row>
     <row r="113" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="33"/>
@@ -11208,17 +11866,17 @@
       <c r="AC221" s="37"/>
       <c r="AD221" s="37"/>
       <c r="AE221" s="37"/>
-      <c r="AF221" s="44" t="s">
+      <c r="AF221" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG221" s="44"/>
-      <c r="AH221" s="45"/>
-      <c r="AI221" s="45"/>
-      <c r="AJ221" s="45"/>
-      <c r="AK221" s="45"/>
-      <c r="AL221" s="45"/>
-      <c r="AM221" s="45"/>
-      <c r="AN221" s="46"/>
+      <c r="AG221" s="52"/>
+      <c r="AH221" s="44"/>
+      <c r="AI221" s="44"/>
+      <c r="AJ221" s="44"/>
+      <c r="AK221" s="44"/>
+      <c r="AL221" s="44"/>
+      <c r="AM221" s="44"/>
+      <c r="AN221" s="45"/>
     </row>
     <row r="222" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="30"/>
@@ -11231,46 +11889,46 @@
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
       <c r="J222" s="32"/>
-      <c r="K222" s="47" t="s">
+      <c r="K222" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L222" s="47"/>
-      <c r="M222" s="47"/>
-      <c r="N222" s="48" t="s">
+      <c r="L222" s="46"/>
+      <c r="M222" s="46"/>
+      <c r="N222" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="O222" s="48"/>
-      <c r="P222" s="48"/>
-      <c r="Q222" s="48"/>
-      <c r="R222" s="48"/>
-      <c r="S222" s="48"/>
-      <c r="T222" s="48"/>
-      <c r="U222" s="48"/>
-      <c r="V222" s="48"/>
-      <c r="W222" s="48" t="s">
+      <c r="O222" s="47"/>
+      <c r="P222" s="47"/>
+      <c r="Q222" s="47"/>
+      <c r="R222" s="47"/>
+      <c r="S222" s="47"/>
+      <c r="T222" s="47"/>
+      <c r="U222" s="47"/>
+      <c r="V222" s="47"/>
+      <c r="W222" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X222" s="48"/>
-      <c r="Y222" s="49">
+      <c r="X222" s="47"/>
+      <c r="Y222" s="48">
         <v>44718</v>
       </c>
-      <c r="Z222" s="48"/>
-      <c r="AA222" s="48"/>
-      <c r="AB222" s="48"/>
-      <c r="AC222" s="48"/>
-      <c r="AD222" s="48"/>
-      <c r="AE222" s="48"/>
-      <c r="AF222" s="50" t="s">
+      <c r="Z222" s="47"/>
+      <c r="AA222" s="47"/>
+      <c r="AB222" s="47"/>
+      <c r="AC222" s="47"/>
+      <c r="AD222" s="47"/>
+      <c r="AE222" s="47"/>
+      <c r="AF222" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AG222" s="50"/>
-      <c r="AH222" s="51"/>
-      <c r="AI222" s="51"/>
-      <c r="AJ222" s="51"/>
-      <c r="AK222" s="51"/>
-      <c r="AL222" s="51"/>
-      <c r="AM222" s="51"/>
-      <c r="AN222" s="52"/>
+      <c r="AG222" s="49"/>
+      <c r="AH222" s="50"/>
+      <c r="AI222" s="50"/>
+      <c r="AJ222" s="50"/>
+      <c r="AK222" s="50"/>
+      <c r="AL222" s="50"/>
+      <c r="AM222" s="50"/>
+      <c r="AN222" s="51"/>
     </row>
     <row r="223" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A223" s="33"/>
@@ -15867,6 +16525,36 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A221:J223"/>
+    <mergeCell ref="K221:M221"/>
+    <mergeCell ref="N221:V221"/>
+    <mergeCell ref="W221:X221"/>
+    <mergeCell ref="Y221:AE221"/>
+    <mergeCell ref="K223:M223"/>
+    <mergeCell ref="N223:AN223"/>
+    <mergeCell ref="AF221:AG221"/>
+    <mergeCell ref="AH221:AN221"/>
+    <mergeCell ref="K222:M222"/>
+    <mergeCell ref="N222:V222"/>
+    <mergeCell ref="W222:X222"/>
+    <mergeCell ref="Y222:AE222"/>
+    <mergeCell ref="AF222:AG222"/>
+    <mergeCell ref="AH222:AN222"/>
+    <mergeCell ref="A111:J113"/>
+    <mergeCell ref="K111:M111"/>
+    <mergeCell ref="N111:V111"/>
+    <mergeCell ref="W111:X111"/>
+    <mergeCell ref="Y111:AE111"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:AN113"/>
+    <mergeCell ref="AF111:AG111"/>
+    <mergeCell ref="AH111:AN111"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="N112:V112"/>
+    <mergeCell ref="W112:X112"/>
+    <mergeCell ref="Y112:AE112"/>
+    <mergeCell ref="AF112:AG112"/>
+    <mergeCell ref="AH112:AN112"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -15882,36 +16570,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="A111:J113"/>
-    <mergeCell ref="K111:M111"/>
-    <mergeCell ref="N111:V111"/>
-    <mergeCell ref="W111:X111"/>
-    <mergeCell ref="Y111:AE111"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:AN113"/>
-    <mergeCell ref="AF111:AG111"/>
-    <mergeCell ref="AH111:AN111"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="N112:V112"/>
-    <mergeCell ref="W112:X112"/>
-    <mergeCell ref="Y112:AE112"/>
-    <mergeCell ref="AF112:AG112"/>
-    <mergeCell ref="AH112:AN112"/>
-    <mergeCell ref="A221:J223"/>
-    <mergeCell ref="K221:M221"/>
-    <mergeCell ref="N221:V221"/>
-    <mergeCell ref="W221:X221"/>
-    <mergeCell ref="Y221:AE221"/>
-    <mergeCell ref="K223:M223"/>
-    <mergeCell ref="N223:AN223"/>
-    <mergeCell ref="AF221:AG221"/>
-    <mergeCell ref="AH221:AN221"/>
-    <mergeCell ref="K222:M222"/>
-    <mergeCell ref="N222:V222"/>
-    <mergeCell ref="W222:X222"/>
-    <mergeCell ref="Y222:AE222"/>
-    <mergeCell ref="AF222:AG222"/>
-    <mergeCell ref="AH222:AN222"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
